--- a/01_Paradigms/ER-ED/ER_Training/blocks_training.xlsx
+++ b/01_Paradigms/ER-ED/ER_Training/blocks_training.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Trigger</t>
   </si>
@@ -51,9 +51,6 @@
     <t>ABLENKEN</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>DISTANZIEREN</t>
   </si>
   <si>
@@ -61,14 +58,84 @@
   </si>
   <si>
     <t>ANSCHAUEN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bitte reagieren Sie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>natürlich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> auf die Bildinhalte </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ohne</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aufkommende Emotionen zu verändern!</t>
+    </r>
+  </si>
+  <si>
+    <t>Dieses Mal sollen Sie alle aufkommenden Emotionen unterdrücken. Wenn Sie also die Bilder ansehen, verhalten Sie sich so, dass eine außenstehende Person nicht sehen kann, welche Emotionen Sie gerade empfinden</t>
+  </si>
+  <si>
+    <t>instr_3</t>
+  </si>
+  <si>
+    <t>Bitte konzentrieren Sie Ihre Regulationsbemühungen nur auf das Bild, nicht aber auf die Zeiträme zwischen den Bildern.</t>
+  </si>
+  <si>
+    <t>Dieses Mal sollen Sie die Position eines uninvolvierten Beobachters einnehmen. Denken Sie über das Bild in einer neutralen Weise nach.</t>
+  </si>
+  <si>
+    <t>DAS HIER IST NUR EIN PLATZHALTER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,9 +163,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -379,19 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.21875" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -404,11 +473,14 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -419,13 +491,16 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -438,11 +513,14 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -453,13 +531,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -470,13 +551,17 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_Paradigms/ER-ED/ER_Training/blocks_training.xlsx
+++ b/01_Paradigms/ER-ED/ER_Training/blocks_training.xlsx
@@ -119,7 +119,7 @@
     <t>Dieses Mal sollen Sie die Position eines uninvolvierten Beobachters einnehmen. Denken Sie über das Bild in einer neutralen Weise nach.</t>
   </si>
   <si>
-    <t>DAS HIER IST NUR EIN PLATZHALTER</t>
+    <t>Denken Sie während des Betrachtens der Bilder an etwas Neutrales, das mit dem Bild nichts zu tun hat. Das könnten geometrische Figuren, Alltagstätigkeiten oder bekannte Orte sein.</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/01_Paradigms/ER-ED/ER_Training/blocks_training.xlsx
+++ b/01_Paradigms/ER-ED/ER_Training/blocks_training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -450,17 +450,18 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -480,7 +481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -500,7 +501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -520,7 +521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -540,7 +541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
